--- a/data/pca/factorExposure/factorExposure_2015-09-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02834822956304609</v>
+        <v>0.02372300046548374</v>
       </c>
       <c r="C2">
-        <v>-0.03439178893543603</v>
+        <v>-0.04437972550371569</v>
       </c>
       <c r="D2">
-        <v>0.1143498473529635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1278874814573542</v>
+      </c>
+      <c r="E2">
+        <v>0.05121121064637199</v>
+      </c>
+      <c r="F2">
+        <v>-0.0310698920578842</v>
+      </c>
+      <c r="G2">
+        <v>0.05075799012187279</v>
+      </c>
+      <c r="H2">
+        <v>-0.08828358827874293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01007325947467314</v>
+        <v>0.003889267369954656</v>
       </c>
       <c r="C3">
-        <v>-0.04704965376687069</v>
+        <v>-0.03791173332702407</v>
       </c>
       <c r="D3">
-        <v>0.07781872202188521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05631675517929895</v>
+      </c>
+      <c r="E3">
+        <v>0.06751365120008718</v>
+      </c>
+      <c r="F3">
+        <v>-0.06180674118485608</v>
+      </c>
+      <c r="G3">
+        <v>0.09115896630939273</v>
+      </c>
+      <c r="H3">
+        <v>-0.1089731925787011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05353685943056705</v>
+        <v>0.04658013684795433</v>
       </c>
       <c r="C4">
-        <v>-0.06824973402520697</v>
+        <v>-0.08514820398798638</v>
       </c>
       <c r="D4">
-        <v>0.1227785053902133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1405305221757743</v>
+      </c>
+      <c r="E4">
+        <v>0.06206434575940512</v>
+      </c>
+      <c r="F4">
+        <v>-0.05258865354286617</v>
+      </c>
+      <c r="G4">
+        <v>-0.05870939545852134</v>
+      </c>
+      <c r="H4">
+        <v>-0.003960526944885063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03677773469847778</v>
+        <v>0.03616577238730333</v>
       </c>
       <c r="C6">
-        <v>-0.02737891685806004</v>
+        <v>-0.03746199494174528</v>
       </c>
       <c r="D6">
-        <v>0.1513866321421837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1404217731763976</v>
+      </c>
+      <c r="E6">
+        <v>0.01518773010745902</v>
+      </c>
+      <c r="F6">
+        <v>-0.04743028670143645</v>
+      </c>
+      <c r="G6">
+        <v>-0.0194661709580938</v>
+      </c>
+      <c r="H6">
+        <v>-0.05247890555931332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02182922233694525</v>
+        <v>0.01764346407740972</v>
       </c>
       <c r="C7">
-        <v>-0.03050152857707563</v>
+        <v>-0.03833937823371705</v>
       </c>
       <c r="D7">
-        <v>0.1052574220617645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09621575937890339</v>
+      </c>
+      <c r="E7">
+        <v>0.001903214691017229</v>
+      </c>
+      <c r="F7">
+        <v>-0.02869243043179448</v>
+      </c>
+      <c r="G7">
+        <v>-0.002209389939630511</v>
+      </c>
+      <c r="H7">
+        <v>-0.06976240965347304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0121307810032013</v>
+        <v>0.006885053558622257</v>
       </c>
       <c r="C8">
-        <v>-0.03469091060827392</v>
+        <v>-0.03946283696085588</v>
       </c>
       <c r="D8">
-        <v>0.06234235431201748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07397557757084754</v>
+      </c>
+      <c r="E8">
+        <v>0.02932205211898259</v>
+      </c>
+      <c r="F8">
+        <v>-0.07240831730560519</v>
+      </c>
+      <c r="G8">
+        <v>0.03054964397931836</v>
+      </c>
+      <c r="H8">
+        <v>-0.05469080216713536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04339836857673833</v>
+        <v>0.0363806520988729</v>
       </c>
       <c r="C9">
-        <v>-0.06018685109893212</v>
+        <v>-0.07411761373397503</v>
       </c>
       <c r="D9">
-        <v>0.1091403671889516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1169400120862331</v>
+      </c>
+      <c r="E9">
+        <v>0.04519902884881866</v>
+      </c>
+      <c r="F9">
+        <v>-0.03199869797209601</v>
+      </c>
+      <c r="G9">
+        <v>-0.0401131721635799</v>
+      </c>
+      <c r="H9">
+        <v>-0.005791789115502606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1301956740870394</v>
+        <v>0.1735165878147232</v>
       </c>
       <c r="C10">
-        <v>0.1832751638631419</v>
+        <v>0.1693672737904821</v>
       </c>
       <c r="D10">
-        <v>-0.002841259881049627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003881322358906422</v>
+      </c>
+      <c r="E10">
+        <v>0.03335746273180011</v>
+      </c>
+      <c r="F10">
+        <v>-0.04071689312160367</v>
+      </c>
+      <c r="G10">
+        <v>0.0008765070530613651</v>
+      </c>
+      <c r="H10">
+        <v>0.04607547289296403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03498527415365941</v>
+        <v>0.02899093633128522</v>
       </c>
       <c r="C11">
-        <v>-0.04390395367093216</v>
+        <v>-0.05174900848726176</v>
       </c>
       <c r="D11">
-        <v>0.05993667721702795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05441289966762766</v>
+      </c>
+      <c r="E11">
+        <v>-0.01257284973795988</v>
+      </c>
+      <c r="F11">
+        <v>0.005510218824196072</v>
+      </c>
+      <c r="G11">
+        <v>0.0003393671939328813</v>
+      </c>
+      <c r="H11">
+        <v>-0.03451994020942303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03864371373189068</v>
+        <v>0.0313630945640177</v>
       </c>
       <c r="C12">
-        <v>-0.04629993458659057</v>
+        <v>-0.0533825266460202</v>
       </c>
       <c r="D12">
-        <v>0.06102330259582228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05365395575370647</v>
+      </c>
+      <c r="E12">
+        <v>-0.001073832415169682</v>
+      </c>
+      <c r="F12">
+        <v>0.009899917575767711</v>
+      </c>
+      <c r="G12">
+        <v>-0.0003038261247224844</v>
+      </c>
+      <c r="H12">
+        <v>-0.03876875922533368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01282161752528614</v>
+        <v>0.01575995338625073</v>
       </c>
       <c r="C13">
-        <v>-0.03769748179905897</v>
+        <v>-0.04648860779590082</v>
       </c>
       <c r="D13">
-        <v>0.138832001346681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1552312624799272</v>
+      </c>
+      <c r="E13">
+        <v>0.02251241745905034</v>
+      </c>
+      <c r="F13">
+        <v>-0.07148575589332123</v>
+      </c>
+      <c r="G13">
+        <v>0.0156488772184606</v>
+      </c>
+      <c r="H13">
+        <v>-0.05927958714050568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006426663689913379</v>
+        <v>0.007229012954446008</v>
       </c>
       <c r="C14">
-        <v>-0.02361490523755612</v>
+        <v>-0.02783296985162039</v>
       </c>
       <c r="D14">
-        <v>0.09794080459719517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09930835087491978</v>
+      </c>
+      <c r="E14">
+        <v>0.02500754875921988</v>
+      </c>
+      <c r="F14">
+        <v>-0.02632597322278415</v>
+      </c>
+      <c r="G14">
+        <v>-0.005820930425236908</v>
+      </c>
+      <c r="H14">
+        <v>-0.08947897336851808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002889942444051482</v>
+        <v>0.001395338438838529</v>
       </c>
       <c r="C15">
-        <v>-0.005145824374777857</v>
+        <v>-0.01393843106145035</v>
       </c>
       <c r="D15">
-        <v>0.009046721234048767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03663449913002278</v>
+      </c>
+      <c r="E15">
+        <v>0.009877428536795503</v>
+      </c>
+      <c r="F15">
+        <v>-0.006865785054395014</v>
+      </c>
+      <c r="G15">
+        <v>0.0003556896079594701</v>
+      </c>
+      <c r="H15">
+        <v>-0.02072733746471518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03267029283484374</v>
+        <v>0.02762216944740978</v>
       </c>
       <c r="C16">
-        <v>-0.04491357175798365</v>
+        <v>-0.05086920104394066</v>
       </c>
       <c r="D16">
-        <v>0.06880144707298927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06070067550364261</v>
+      </c>
+      <c r="E16">
+        <v>0.006624347737075533</v>
+      </c>
+      <c r="F16">
+        <v>-0.002330248233741326</v>
+      </c>
+      <c r="G16">
+        <v>-0.006513308775694172</v>
+      </c>
+      <c r="H16">
+        <v>-0.04952463321610559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01234508059281175</v>
+        <v>0.007690207193120597</v>
       </c>
       <c r="C19">
-        <v>-0.03515340589749039</v>
+        <v>-0.03104292243675126</v>
       </c>
       <c r="D19">
-        <v>0.1448373001261217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1125396339833532</v>
+      </c>
+      <c r="E19">
+        <v>0.06006640065906158</v>
+      </c>
+      <c r="F19">
+        <v>-0.01712539773682383</v>
+      </c>
+      <c r="G19">
+        <v>0.0137322528331416</v>
+      </c>
+      <c r="H19">
+        <v>-0.05457231460662149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01683256663499465</v>
+        <v>0.01599552020355489</v>
       </c>
       <c r="C20">
-        <v>-0.03407205905640601</v>
+        <v>-0.03994862495595156</v>
       </c>
       <c r="D20">
-        <v>0.09189015224134496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1032761631579761</v>
+      </c>
+      <c r="E20">
+        <v>0.04576252929026108</v>
+      </c>
+      <c r="F20">
+        <v>-0.02603923281413267</v>
+      </c>
+      <c r="G20">
+        <v>-0.0151412296075076</v>
+      </c>
+      <c r="H20">
+        <v>-0.05057750494863916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01124676275815076</v>
+        <v>0.008782493453349274</v>
       </c>
       <c r="C21">
-        <v>-0.03664991536257361</v>
+        <v>-0.04337931996012348</v>
       </c>
       <c r="D21">
-        <v>0.1433875573602223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1427742857052256</v>
+      </c>
+      <c r="E21">
+        <v>0.0808044202919542</v>
+      </c>
+      <c r="F21">
+        <v>-0.06271401111263206</v>
+      </c>
+      <c r="G21">
+        <v>-0.02217105112457023</v>
+      </c>
+      <c r="H21">
+        <v>-0.07655825426580226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0008382760121958709</v>
+        <v>0.007292989286430096</v>
       </c>
       <c r="C22">
-        <v>-0.0478501106569642</v>
+        <v>-0.04755439556113491</v>
       </c>
       <c r="D22">
-        <v>0.1167381814633685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1684714483664472</v>
+      </c>
+      <c r="E22">
+        <v>0.01925170714479965</v>
+      </c>
+      <c r="F22">
+        <v>-0.1199554249839188</v>
+      </c>
+      <c r="G22">
+        <v>0.1069166938505251</v>
+      </c>
+      <c r="H22">
+        <v>0.01162957053892434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001000906991124638</v>
+        <v>0.007423394343261387</v>
       </c>
       <c r="C23">
-        <v>-0.0481634917853393</v>
+        <v>-0.04806751733472718</v>
       </c>
       <c r="D23">
-        <v>0.1162045420759658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1676477280745561</v>
+      </c>
+      <c r="E23">
+        <v>0.01950007284343637</v>
+      </c>
+      <c r="F23">
+        <v>-0.1200805908911643</v>
+      </c>
+      <c r="G23">
+        <v>0.1062183080921901</v>
+      </c>
+      <c r="H23">
+        <v>0.01223051486389893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03824835612424139</v>
+        <v>0.02993840031469656</v>
       </c>
       <c r="C24">
-        <v>-0.05772634761366057</v>
+        <v>-0.063967585199556</v>
       </c>
       <c r="D24">
-        <v>0.06548180228580987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05929253585531272</v>
+      </c>
+      <c r="E24">
+        <v>0.004695708893098887</v>
+      </c>
+      <c r="F24">
+        <v>6.663750695032817e-05</v>
+      </c>
+      <c r="G24">
+        <v>-0.01597328667324129</v>
+      </c>
+      <c r="H24">
+        <v>-0.05757205030245964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04246796054267306</v>
+        <v>0.03442945061666599</v>
       </c>
       <c r="C25">
-        <v>-0.05311607312869003</v>
+        <v>-0.06030433648421658</v>
       </c>
       <c r="D25">
-        <v>0.06327000297466386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05704870584991861</v>
+      </c>
+      <c r="E25">
+        <v>0.009055427097476115</v>
+      </c>
+      <c r="F25">
+        <v>-0.002170170227400866</v>
+      </c>
+      <c r="G25">
+        <v>-0.0007266149456998085</v>
+      </c>
+      <c r="H25">
+        <v>-0.02995994656149738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0136154480498063</v>
+        <v>0.01370535330378587</v>
       </c>
       <c r="C26">
-        <v>-0.01381098532507225</v>
+        <v>-0.0218808427249334</v>
       </c>
       <c r="D26">
-        <v>0.06210991883664077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0668634713717936</v>
+      </c>
+      <c r="E26">
+        <v>0.02019248406446762</v>
+      </c>
+      <c r="F26">
+        <v>-0.02900182826485229</v>
+      </c>
+      <c r="G26">
+        <v>-0.007855575084095876</v>
+      </c>
+      <c r="H26">
+        <v>-0.05567774473334677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1947656829865448</v>
+        <v>0.2515517078456115</v>
       </c>
       <c r="C28">
-        <v>0.2480529649881862</v>
+        <v>0.2243993591308625</v>
       </c>
       <c r="D28">
-        <v>-0.0181961524745293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0156276165548511</v>
+      </c>
+      <c r="E28">
+        <v>0.05678000457125486</v>
+      </c>
+      <c r="F28">
+        <v>-0.02640157339017973</v>
+      </c>
+      <c r="G28">
+        <v>-0.02134145995807752</v>
+      </c>
+      <c r="H28">
+        <v>0.06655959510731591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003977230537507967</v>
+        <v>0.005014308147523368</v>
       </c>
       <c r="C29">
-        <v>-0.02199239133140401</v>
+        <v>-0.02686062929195856</v>
       </c>
       <c r="D29">
-        <v>0.08746705486190776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09547865478764932</v>
+      </c>
+      <c r="E29">
+        <v>0.01285744170069136</v>
+      </c>
+      <c r="F29">
+        <v>-0.04451995965145118</v>
+      </c>
+      <c r="G29">
+        <v>-0.01365777183183657</v>
+      </c>
+      <c r="H29">
+        <v>-0.08575314160032377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03595591323974721</v>
+        <v>0.03636101341121552</v>
       </c>
       <c r="C30">
-        <v>-0.06347424585414536</v>
+        <v>-0.07542058864857057</v>
       </c>
       <c r="D30">
-        <v>0.1592969450861066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1663360274594848</v>
+      </c>
+      <c r="E30">
+        <v>0.01771101107852899</v>
+      </c>
+      <c r="F30">
+        <v>-0.03818397268560291</v>
+      </c>
+      <c r="G30">
+        <v>-0.02604357541067755</v>
+      </c>
+      <c r="H30">
+        <v>-0.06177639691551903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0608748974389704</v>
+        <v>0.04555704638533931</v>
       </c>
       <c r="C31">
-        <v>-0.07518012684830637</v>
+        <v>-0.08481772418449449</v>
       </c>
       <c r="D31">
-        <v>0.06052115287457392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04709573987269183</v>
+      </c>
+      <c r="E31">
+        <v>0.01939714967651175</v>
+      </c>
+      <c r="F31">
+        <v>-0.04058626976827092</v>
+      </c>
+      <c r="G31">
+        <v>0.004547415217884602</v>
+      </c>
+      <c r="H31">
+        <v>-0.02571600544464862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02330822879020613</v>
+        <v>0.02255936825892067</v>
       </c>
       <c r="C32">
-        <v>-0.02242782065190208</v>
+        <v>-0.02841505729591376</v>
       </c>
       <c r="D32">
-        <v>0.0916281164355099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1152732376424078</v>
+      </c>
+      <c r="E32">
+        <v>0.05263027077022692</v>
+      </c>
+      <c r="F32">
+        <v>-0.06111575606557493</v>
+      </c>
+      <c r="G32">
+        <v>-0.003927967255892388</v>
+      </c>
+      <c r="H32">
+        <v>-0.03262290759072505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02556519336090401</v>
+        <v>0.02416939268392032</v>
       </c>
       <c r="C33">
-        <v>-0.0433295904733912</v>
+        <v>-0.05172437078896621</v>
       </c>
       <c r="D33">
-        <v>0.1430094819700797</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1356227119597485</v>
+      </c>
+      <c r="E33">
+        <v>0.03912240453179789</v>
+      </c>
+      <c r="F33">
+        <v>-0.03641910948383709</v>
+      </c>
+      <c r="G33">
+        <v>-0.009504455167514523</v>
+      </c>
+      <c r="H33">
+        <v>-0.05716485827076253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0358617862593477</v>
+        <v>0.02685875113289956</v>
       </c>
       <c r="C34">
-        <v>-0.06514391895812198</v>
+        <v>-0.06677760226584295</v>
       </c>
       <c r="D34">
-        <v>0.06442960666138997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04971509898351094</v>
+      </c>
+      <c r="E34">
+        <v>-0.01105328481985744</v>
+      </c>
+      <c r="F34">
+        <v>0.01609784938190514</v>
+      </c>
+      <c r="G34">
+        <v>0.005509759613673853</v>
+      </c>
+      <c r="H34">
+        <v>-0.0549693432920706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009552183375758685</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.001599921472166408</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008323224547484586</v>
+      </c>
+      <c r="E35">
+        <v>-4.607090947129592e-05</v>
+      </c>
+      <c r="F35">
+        <v>-0.001555722230111798</v>
+      </c>
+      <c r="G35">
+        <v>-0.0002863269178421947</v>
+      </c>
+      <c r="H35">
+        <v>-0.00355862672894065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0198481681121414</v>
+        <v>0.01926599469942796</v>
       </c>
       <c r="C36">
-        <v>-0.008823533733963905</v>
+        <v>-0.0192610496579841</v>
       </c>
       <c r="D36">
-        <v>0.0867052302413451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08155359017031466</v>
+      </c>
+      <c r="E36">
+        <v>0.02608687318132074</v>
+      </c>
+      <c r="F36">
+        <v>-0.02190430944072765</v>
+      </c>
+      <c r="G36">
+        <v>-0.02309153003177098</v>
+      </c>
+      <c r="H36">
+        <v>-0.04214257268694414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01742017541685848</v>
+        <v>0.02135756215807215</v>
       </c>
       <c r="C38">
-        <v>-0.01585199225277834</v>
+        <v>-0.02003264824300359</v>
       </c>
       <c r="D38">
-        <v>0.07440089078838681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07386523539215863</v>
+      </c>
+      <c r="E38">
+        <v>0.03754560146904477</v>
+      </c>
+      <c r="F38">
+        <v>0.01106031072834264</v>
+      </c>
+      <c r="G38">
+        <v>0.009764288251952699</v>
+      </c>
+      <c r="H38">
+        <v>-0.04227138675992948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03922076564531315</v>
+        <v>0.03146212694434153</v>
       </c>
       <c r="C39">
-        <v>-0.06163794616662964</v>
+        <v>-0.07529446555341091</v>
       </c>
       <c r="D39">
-        <v>0.09886595954976138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1029715349721455</v>
+      </c>
+      <c r="E39">
+        <v>0.004215476296003099</v>
+      </c>
+      <c r="F39">
+        <v>0.0115672188589829</v>
+      </c>
+      <c r="G39">
+        <v>-0.03145304572879917</v>
+      </c>
+      <c r="H39">
+        <v>-0.0891936002057228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01759987967676682</v>
+        <v>0.01375609730973628</v>
       </c>
       <c r="C40">
-        <v>-0.04168034536555239</v>
+        <v>-0.03962908966296508</v>
       </c>
       <c r="D40">
-        <v>0.08596919284760859</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08860258527605556</v>
+      </c>
+      <c r="E40">
+        <v>0.04167601271291513</v>
+      </c>
+      <c r="F40">
+        <v>-0.1066003285140376</v>
+      </c>
+      <c r="G40">
+        <v>0.1114613194374876</v>
+      </c>
+      <c r="H40">
+        <v>-0.1640259643605281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03066810726470212</v>
+        <v>0.02767430124324293</v>
       </c>
       <c r="C41">
-        <v>-0.006116096648032912</v>
+        <v>-0.015013037335054</v>
       </c>
       <c r="D41">
-        <v>0.06530922143059109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04789170454763024</v>
+      </c>
+      <c r="E41">
+        <v>0.05019568820472513</v>
+      </c>
+      <c r="F41">
+        <v>-0.01410049729404309</v>
+      </c>
+      <c r="G41">
+        <v>0.0114656009236534</v>
+      </c>
+      <c r="H41">
+        <v>-0.05059915348702861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02808662018467181</v>
+        <v>0.02317768269950337</v>
       </c>
       <c r="C43">
-        <v>-0.01552111402708647</v>
+        <v>-0.02229649679700413</v>
       </c>
       <c r="D43">
-        <v>0.1073452395068609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08239137921080217</v>
+      </c>
+      <c r="E43">
+        <v>0.0305894036549803</v>
+      </c>
+      <c r="F43">
+        <v>-0.01047512958598695</v>
+      </c>
+      <c r="G43">
+        <v>0.004011854651281373</v>
+      </c>
+      <c r="H43">
+        <v>-0.0602614138093211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01618456387240498</v>
+        <v>0.01773904368712911</v>
       </c>
       <c r="C44">
-        <v>-0.04111120758368923</v>
+        <v>-0.04438965625770494</v>
       </c>
       <c r="D44">
-        <v>0.089858420581526</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1058919708814589</v>
+      </c>
+      <c r="E44">
+        <v>0.04006840816341359</v>
+      </c>
+      <c r="F44">
+        <v>-0.0269453352354146</v>
+      </c>
+      <c r="G44">
+        <v>-0.009710726584921763</v>
+      </c>
+      <c r="H44">
+        <v>-0.04273460854587913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01565115090707528</v>
+        <v>0.01157815927439375</v>
       </c>
       <c r="C46">
-        <v>-0.02639497850533159</v>
+        <v>-0.0351347811478223</v>
       </c>
       <c r="D46">
-        <v>0.09068222212712558</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09034772904641133</v>
+      </c>
+      <c r="E46">
+        <v>0.02706374867866882</v>
+      </c>
+      <c r="F46">
+        <v>-0.02243266149280111</v>
+      </c>
+      <c r="G46">
+        <v>-0.0238616007013786</v>
+      </c>
+      <c r="H46">
+        <v>-0.08551645168079285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09082508670396641</v>
+        <v>0.07238166589359797</v>
       </c>
       <c r="C47">
-        <v>-0.08975356878432551</v>
+        <v>-0.1040377032562827</v>
       </c>
       <c r="D47">
-        <v>0.02470793465377993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02214230458001779</v>
+      </c>
+      <c r="E47">
+        <v>0.02815078547307751</v>
+      </c>
+      <c r="F47">
+        <v>-0.02587513907453734</v>
+      </c>
+      <c r="G47">
+        <v>0.01959884086895075</v>
+      </c>
+      <c r="H47">
+        <v>0.03930903480611228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01222946033559898</v>
+        <v>0.01354324693200495</v>
       </c>
       <c r="C48">
-        <v>-0.02076314514958117</v>
+        <v>-0.02504388535924057</v>
       </c>
       <c r="D48">
-        <v>0.07087591465255159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07393426008889481</v>
+      </c>
+      <c r="E48">
+        <v>0.05573677389290253</v>
+      </c>
+      <c r="F48">
+        <v>-0.02863052191036811</v>
+      </c>
+      <c r="G48">
+        <v>-0.02357188122465113</v>
+      </c>
+      <c r="H48">
+        <v>-0.05869881470613383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05288044704154039</v>
+        <v>0.04028968378525721</v>
       </c>
       <c r="C50">
-        <v>-0.06230357581535634</v>
+        <v>-0.07326081789087965</v>
       </c>
       <c r="D50">
-        <v>0.05677897156652735</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05130534230298475</v>
+      </c>
+      <c r="E50">
+        <v>0.02748608371094228</v>
+      </c>
+      <c r="F50">
+        <v>-0.04401156006886538</v>
+      </c>
+      <c r="G50">
+        <v>0.03343935187788485</v>
+      </c>
+      <c r="H50">
+        <v>-0.02540974664709227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01603244941389667</v>
+        <v>0.01322458910280911</v>
       </c>
       <c r="C51">
-        <v>-0.01536773194785746</v>
+        <v>-0.02434606127639677</v>
       </c>
       <c r="D51">
-        <v>0.09112292775666435</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09628629810453185</v>
+      </c>
+      <c r="E51">
+        <v>-0.001398999258822748</v>
+      </c>
+      <c r="F51">
+        <v>-0.01055711661375812</v>
+      </c>
+      <c r="G51">
+        <v>-0.02362592365373508</v>
+      </c>
+      <c r="H51">
+        <v>-0.06825770182889709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1041065758947883</v>
+        <v>0.09042460709232591</v>
       </c>
       <c r="C53">
-        <v>-0.1064441439952535</v>
+        <v>-0.1217443964931331</v>
       </c>
       <c r="D53">
-        <v>-0.02213463061455401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01783425529573666</v>
+      </c>
+      <c r="E53">
+        <v>0.07334599437008928</v>
+      </c>
+      <c r="F53">
+        <v>-0.07996124502115823</v>
+      </c>
+      <c r="G53">
+        <v>-0.01262049862564181</v>
+      </c>
+      <c r="H53">
+        <v>0.01213794251506083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02220637662160456</v>
+        <v>0.02072843621458312</v>
       </c>
       <c r="C54">
-        <v>-0.02939366166971607</v>
+        <v>-0.03754200275459293</v>
       </c>
       <c r="D54">
-        <v>0.1033437996683447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09447900920962675</v>
+      </c>
+      <c r="E54">
+        <v>0.03722872384520098</v>
+      </c>
+      <c r="F54">
+        <v>-0.0181378133564642</v>
+      </c>
+      <c r="G54">
+        <v>0.01294736745304756</v>
+      </c>
+      <c r="H54">
+        <v>-0.07992727770186607</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09605381735475094</v>
+        <v>0.0810367628579913</v>
       </c>
       <c r="C55">
-        <v>-0.08155881700154523</v>
+        <v>-0.09782768128802886</v>
       </c>
       <c r="D55">
-        <v>-0.03215256687998919</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02804819883464939</v>
+      </c>
+      <c r="E55">
+        <v>0.02728196871278388</v>
+      </c>
+      <c r="F55">
+        <v>-0.06436205329856945</v>
+      </c>
+      <c r="G55">
+        <v>0.01627086785521779</v>
+      </c>
+      <c r="H55">
+        <v>0.004058152575837015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1348327338557333</v>
+        <v>0.1138717705328623</v>
       </c>
       <c r="C56">
-        <v>-0.1157732424900788</v>
+        <v>-0.1439774345470708</v>
       </c>
       <c r="D56">
-        <v>-0.0318295320110688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03332422554067598</v>
+      </c>
+      <c r="E56">
+        <v>0.04618546419429025</v>
+      </c>
+      <c r="F56">
+        <v>-0.05291256968694602</v>
+      </c>
+      <c r="G56">
+        <v>0.02785724469782279</v>
+      </c>
+      <c r="H56">
+        <v>0.02748585387253685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01339100045821984</v>
+        <v>0.01900942302264438</v>
       </c>
       <c r="C58">
-        <v>-0.0356626155227064</v>
+        <v>-0.05488096587921307</v>
       </c>
       <c r="D58">
-        <v>0.2589043037433467</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3030248874386193</v>
+      </c>
+      <c r="E58">
+        <v>0.09604336253307411</v>
+      </c>
+      <c r="F58">
+        <v>-0.1293957355246345</v>
+      </c>
+      <c r="G58">
+        <v>0.09035171305388075</v>
+      </c>
+      <c r="H58">
+        <v>0.03390781623036158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1550063136563816</v>
+        <v>0.1957078250989111</v>
       </c>
       <c r="C59">
-        <v>0.1670441937095287</v>
+        <v>0.1422324311444302</v>
       </c>
       <c r="D59">
-        <v>0.04617784561280518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06018594701763096</v>
+      </c>
+      <c r="E59">
+        <v>0.04560108348869486</v>
+      </c>
+      <c r="F59">
+        <v>0.02079476084847636</v>
+      </c>
+      <c r="G59">
+        <v>-0.006608921421714257</v>
+      </c>
+      <c r="H59">
+        <v>0.02526041362376803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2329218547323455</v>
+        <v>0.2119634315554852</v>
       </c>
       <c r="C60">
-        <v>-0.08423880291457161</v>
+        <v>-0.1268044060970358</v>
       </c>
       <c r="D60">
-        <v>0.1740676678548999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1245199760885203</v>
+      </c>
+      <c r="E60">
+        <v>-0.3252538937261821</v>
+      </c>
+      <c r="F60">
+        <v>0.1126654737697657</v>
+      </c>
+      <c r="G60">
+        <v>-0.01055718389989829</v>
+      </c>
+      <c r="H60">
+        <v>0.1872667438088088</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04476080229687672</v>
+        <v>0.03604127326487501</v>
       </c>
       <c r="C61">
-        <v>-0.05701030769799043</v>
+        <v>-0.06850700814990049</v>
       </c>
       <c r="D61">
-        <v>0.1081141574836274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09379080515054537</v>
+      </c>
+      <c r="E61">
+        <v>-0.000820633970548863</v>
+      </c>
+      <c r="F61">
+        <v>0.008630783701360863</v>
+      </c>
+      <c r="G61">
+        <v>-0.01748108530895234</v>
+      </c>
+      <c r="H61">
+        <v>-0.04996945503078708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01637521255225772</v>
+        <v>0.01412767629914622</v>
       </c>
       <c r="C63">
-        <v>-0.0241764807695636</v>
+        <v>-0.03480845835845292</v>
       </c>
       <c r="D63">
-        <v>0.08166894663314804</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07586576684753589</v>
+      </c>
+      <c r="E63">
+        <v>0.008382603740731558</v>
+      </c>
+      <c r="F63">
+        <v>-0.02199483251343958</v>
+      </c>
+      <c r="G63">
+        <v>-0.01709059993581591</v>
+      </c>
+      <c r="H63">
+        <v>-0.04898852717582201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05728439439114541</v>
+        <v>0.04485495097087564</v>
       </c>
       <c r="C64">
-        <v>-0.07807415498898669</v>
+        <v>-0.08467906347919894</v>
       </c>
       <c r="D64">
-        <v>0.04846574618064615</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05084647234884687</v>
+      </c>
+      <c r="E64">
+        <v>0.01832367464874332</v>
+      </c>
+      <c r="F64">
+        <v>0.0002174461566769521</v>
+      </c>
+      <c r="G64">
+        <v>-0.09323722022889357</v>
+      </c>
+      <c r="H64">
+        <v>-0.04240974407646572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03739095125687231</v>
+        <v>0.03502964349257424</v>
       </c>
       <c r="C65">
-        <v>-0.02404693700608183</v>
+        <v>-0.03661233051415123</v>
       </c>
       <c r="D65">
-        <v>0.1204771581369488</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1126980596951246</v>
+      </c>
+      <c r="E65">
+        <v>-0.003887768281830787</v>
+      </c>
+      <c r="F65">
+        <v>-0.02432519376391182</v>
+      </c>
+      <c r="G65">
+        <v>0.003167170709390162</v>
+      </c>
+      <c r="H65">
+        <v>-0.02501603436758901</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04312213190270093</v>
+        <v>0.0353062879469654</v>
       </c>
       <c r="C66">
-        <v>-0.06857516588326695</v>
+        <v>-0.08556519970336196</v>
       </c>
       <c r="D66">
-        <v>0.1137170172415794</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1265447962310308</v>
+      </c>
+      <c r="E66">
+        <v>0.009204978403359943</v>
+      </c>
+      <c r="F66">
+        <v>0.002906668884256418</v>
+      </c>
+      <c r="G66">
+        <v>-0.006078677389012912</v>
+      </c>
+      <c r="H66">
+        <v>-0.05579130640777204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03842169462952942</v>
+        <v>0.03716456083361197</v>
       </c>
       <c r="C67">
-        <v>-0.02259518701278379</v>
+        <v>-0.02869477798143562</v>
       </c>
       <c r="D67">
-        <v>0.04044783806816991</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03108248519601027</v>
+      </c>
+      <c r="E67">
+        <v>0.01134021261663868</v>
+      </c>
+      <c r="F67">
+        <v>0.02488801183204818</v>
+      </c>
+      <c r="G67">
+        <v>0.0105246124655427</v>
+      </c>
+      <c r="H67">
+        <v>-0.04476403484055627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1897976969409425</v>
+        <v>0.2275304502203299</v>
       </c>
       <c r="C68">
-        <v>0.2018752250534821</v>
+        <v>0.1678097701226987</v>
       </c>
       <c r="D68">
-        <v>0.0146414822860913</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02052475620632125</v>
+      </c>
+      <c r="E68">
+        <v>0.01587710478426345</v>
+      </c>
+      <c r="F68">
+        <v>-0.03756900826647892</v>
+      </c>
+      <c r="G68">
+        <v>0.02493528105796309</v>
+      </c>
+      <c r="H68">
+        <v>0.002316215661250531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08461365402354024</v>
+        <v>0.0649638228248786</v>
       </c>
       <c r="C69">
-        <v>-0.1051724610390945</v>
+        <v>-0.1108423188884956</v>
       </c>
       <c r="D69">
-        <v>0.05311358380664057</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03538103871471193</v>
+      </c>
+      <c r="E69">
+        <v>0.01563698275285308</v>
+      </c>
+      <c r="F69">
+        <v>-0.01203807815651221</v>
+      </c>
+      <c r="G69">
+        <v>0.01419765795697233</v>
+      </c>
+      <c r="H69">
+        <v>0.006970432595284878</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1751861753389612</v>
+        <v>0.2142966939912113</v>
       </c>
       <c r="C71">
-        <v>0.2058821549926582</v>
+        <v>0.1742975345069318</v>
       </c>
       <c r="D71">
-        <v>0.01542299102717183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02539192718197857</v>
+      </c>
+      <c r="E71">
+        <v>0.03751726359093173</v>
+      </c>
+      <c r="F71">
+        <v>-0.06274723598374289</v>
+      </c>
+      <c r="G71">
+        <v>0.04337782822723596</v>
+      </c>
+      <c r="H71">
+        <v>0.003505331388075642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1107759699555143</v>
+        <v>0.09694014658537824</v>
       </c>
       <c r="C72">
-        <v>-0.06458792894754749</v>
+        <v>-0.09209708418896237</v>
       </c>
       <c r="D72">
-        <v>0.08364784747296998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08486401011796395</v>
+      </c>
+      <c r="E72">
+        <v>-0.06345029296946113</v>
+      </c>
+      <c r="F72">
+        <v>-0.03385319456814776</v>
+      </c>
+      <c r="G72">
+        <v>-0.01756058252883485</v>
+      </c>
+      <c r="H72">
+        <v>-0.02611317191364284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2280422400026781</v>
+        <v>0.2034689166578514</v>
       </c>
       <c r="C73">
-        <v>-0.04839894939117893</v>
+        <v>-0.1070545433578596</v>
       </c>
       <c r="D73">
-        <v>0.3115317244276481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1939990401152989</v>
+      </c>
+      <c r="E73">
+        <v>-0.5813571782394625</v>
+      </c>
+      <c r="F73">
+        <v>0.1780993533588195</v>
+      </c>
+      <c r="G73">
+        <v>-0.03492369039986413</v>
+      </c>
+      <c r="H73">
+        <v>0.235588513109393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1095976328707229</v>
+        <v>0.09064879375542931</v>
       </c>
       <c r="C74">
-        <v>-0.08622941549203517</v>
+        <v>-0.1071329003822835</v>
       </c>
       <c r="D74">
-        <v>-0.03910556970986613</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03942843279511528</v>
+      </c>
+      <c r="E74">
+        <v>0.02512136101675396</v>
+      </c>
+      <c r="F74">
+        <v>-0.0730418378275314</v>
+      </c>
+      <c r="G74">
+        <v>-0.01196174317595255</v>
+      </c>
+      <c r="H74">
+        <v>0.0418521328459079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2518927590281792</v>
+        <v>0.2115950581269087</v>
       </c>
       <c r="C75">
-        <v>-0.1610503758393254</v>
+        <v>-0.2009018959925405</v>
       </c>
       <c r="D75">
-        <v>-0.133642907214624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1492761084931885</v>
+      </c>
+      <c r="E75">
+        <v>0.07757487214492916</v>
+      </c>
+      <c r="F75">
+        <v>-0.0222576226655375</v>
+      </c>
+      <c r="G75">
+        <v>0.06368427685121289</v>
+      </c>
+      <c r="H75">
+        <v>0.04574789766054839</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1449446576759408</v>
+        <v>0.1194045694007935</v>
       </c>
       <c r="C76">
-        <v>-0.1129800108187445</v>
+        <v>-0.1367471632666666</v>
       </c>
       <c r="D76">
-        <v>-0.04210269139917332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04491940871908717</v>
+      </c>
+      <c r="E76">
+        <v>0.07653921511343548</v>
+      </c>
+      <c r="F76">
+        <v>-0.0352351873402996</v>
+      </c>
+      <c r="G76">
+        <v>-5.072144340878905e-05</v>
+      </c>
+      <c r="H76">
+        <v>-0.03484242074336274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04231789515224454</v>
+        <v>0.04614618468530575</v>
       </c>
       <c r="C77">
-        <v>-0.07081576411356678</v>
+        <v>-0.08336378974261685</v>
       </c>
       <c r="D77">
-        <v>0.02822988383274322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1251909832628992</v>
+      </c>
+      <c r="E77">
+        <v>0.4779701355636513</v>
+      </c>
+      <c r="F77">
+        <v>0.3394245192694102</v>
+      </c>
+      <c r="G77">
+        <v>0.3872405192636874</v>
+      </c>
+      <c r="H77">
+        <v>0.5977999461264781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0436839183672019</v>
+        <v>0.04213209238345581</v>
       </c>
       <c r="C78">
-        <v>-0.06239773442498259</v>
+        <v>-0.07379190422102685</v>
       </c>
       <c r="D78">
-        <v>0.1287689311434654</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1351030771388814</v>
+      </c>
+      <c r="E78">
+        <v>0.01376819810771126</v>
+      </c>
+      <c r="F78">
+        <v>-0.03943692391262008</v>
+      </c>
+      <c r="G78">
+        <v>-0.003255643940330507</v>
+      </c>
+      <c r="H78">
+        <v>0.01836563581143009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05329583020535783</v>
+        <v>0.04966244904183782</v>
       </c>
       <c r="C79">
-        <v>-0.1035694512109185</v>
+        <v>-0.114532445488652</v>
       </c>
       <c r="D79">
-        <v>-0.1454819901360689</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07941726015674845</v>
+      </c>
+      <c r="E79">
+        <v>0.1769620451682297</v>
+      </c>
+      <c r="F79">
+        <v>-0.4012135756734023</v>
+      </c>
+      <c r="G79">
+        <v>-0.67601775785161</v>
+      </c>
+      <c r="H79">
+        <v>0.4117087700628302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02028745612070371</v>
+        <v>0.01746753515788031</v>
       </c>
       <c r="C80">
-        <v>-0.04869603625017513</v>
+        <v>-0.04838442934992779</v>
       </c>
       <c r="D80">
-        <v>0.01975190447675225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01618768952465988</v>
+      </c>
+      <c r="E80">
+        <v>0.01225337104554017</v>
+      </c>
+      <c r="F80">
+        <v>-0.01382415351858207</v>
+      </c>
+      <c r="G80">
+        <v>0.0001860131493536039</v>
+      </c>
+      <c r="H80">
+        <v>-0.0734854520879584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1323600182675253</v>
+        <v>0.1048619248502149</v>
       </c>
       <c r="C81">
-        <v>-0.1180647558389561</v>
+        <v>-0.1375588473414193</v>
       </c>
       <c r="D81">
-        <v>-0.1028155655756412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1019361998661563</v>
+      </c>
+      <c r="E81">
+        <v>0.09223870774384289</v>
+      </c>
+      <c r="F81">
+        <v>-0.06494603760726883</v>
+      </c>
+      <c r="G81">
+        <v>0.01066510007962098</v>
+      </c>
+      <c r="H81">
+        <v>-0.01736738532757121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2682845157423668</v>
+        <v>0.2067929888932527</v>
       </c>
       <c r="C82">
-        <v>-0.2434888043291839</v>
+        <v>-0.2643243820873869</v>
       </c>
       <c r="D82">
-        <v>-0.2176708073002974</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2241852306344308</v>
+      </c>
+      <c r="E82">
+        <v>-0.008632059396891729</v>
+      </c>
+      <c r="F82">
+        <v>0.03368563129468007</v>
+      </c>
+      <c r="G82">
+        <v>0.07185197522968108</v>
+      </c>
+      <c r="H82">
+        <v>-0.01474516078719658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02164227791169289</v>
+        <v>0.01247294307671361</v>
       </c>
       <c r="C83">
-        <v>-0.05738963456480166</v>
+        <v>-0.05529941265541448</v>
       </c>
       <c r="D83">
-        <v>0.04879814216885389</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05400416793750237</v>
+      </c>
+      <c r="E83">
+        <v>0.0600540749524157</v>
+      </c>
+      <c r="F83">
+        <v>0.06729787010849754</v>
+      </c>
+      <c r="G83">
+        <v>0.01660362961207051</v>
+      </c>
+      <c r="H83">
+        <v>0.03747314908091483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009010389251497201</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.005891699656046817</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01729968727084029</v>
+      </c>
+      <c r="E84">
+        <v>0.01483093577826126</v>
+      </c>
+      <c r="F84">
+        <v>-0.02015917110248082</v>
+      </c>
+      <c r="G84">
+        <v>0.001918772704041356</v>
+      </c>
+      <c r="H84">
+        <v>-0.02236896607400756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1691059249887224</v>
+        <v>0.1386189196828661</v>
       </c>
       <c r="C85">
-        <v>-0.1267604387636986</v>
+        <v>-0.1595589582739258</v>
       </c>
       <c r="D85">
-        <v>-0.05859255831637199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08248145667248237</v>
+      </c>
+      <c r="E85">
+        <v>0.006968084533888975</v>
+      </c>
+      <c r="F85">
+        <v>-0.05528515705933849</v>
+      </c>
+      <c r="G85">
+        <v>-0.06038450183780882</v>
+      </c>
+      <c r="H85">
+        <v>0.01324806675011601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02533931594768505</v>
+        <v>0.02204984382103308</v>
       </c>
       <c r="C86">
-        <v>-0.03838948950431265</v>
+        <v>-0.03945962578341754</v>
       </c>
       <c r="D86">
-        <v>0.1207164872991955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1212044179126641</v>
+      </c>
+      <c r="E86">
+        <v>0.03090608587232457</v>
+      </c>
+      <c r="F86">
+        <v>0.006630650984948804</v>
+      </c>
+      <c r="G86">
+        <v>0.06109652777948896</v>
+      </c>
+      <c r="H86">
+        <v>0.03758276984149129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02843776435579658</v>
+        <v>0.03329532597809334</v>
       </c>
       <c r="C87">
-        <v>-0.02178419550239704</v>
+        <v>-0.03514146144020795</v>
       </c>
       <c r="D87">
-        <v>0.1067966715468789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1328351189796868</v>
+      </c>
+      <c r="E87">
+        <v>0.06328808876412033</v>
+      </c>
+      <c r="F87">
+        <v>-0.03114899617076868</v>
+      </c>
+      <c r="G87">
+        <v>-0.006946713839661716</v>
+      </c>
+      <c r="H87">
+        <v>-0.05031133314665685</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07270799586583034</v>
+        <v>0.05931414228793343</v>
       </c>
       <c r="C88">
-        <v>-0.04639048946732215</v>
+        <v>-0.06182639573534669</v>
       </c>
       <c r="D88">
-        <v>0.03928725960301003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01668394573768287</v>
+      </c>
+      <c r="E88">
+        <v>0.00695891287121866</v>
+      </c>
+      <c r="F88">
+        <v>-0.02496671557982261</v>
+      </c>
+      <c r="G88">
+        <v>-0.02098827380198202</v>
+      </c>
+      <c r="H88">
+        <v>-0.05085137587561175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2689134846667105</v>
+        <v>0.3257296890865975</v>
       </c>
       <c r="C89">
-        <v>0.3788088387618735</v>
+        <v>0.3100681505320466</v>
       </c>
       <c r="D89">
-        <v>-0.01298866025654154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003581297663079951</v>
+      </c>
+      <c r="E89">
+        <v>0.06417992891748545</v>
+      </c>
+      <c r="F89">
+        <v>0.008683856212835803</v>
+      </c>
+      <c r="G89">
+        <v>-0.06898959321922009</v>
+      </c>
+      <c r="H89">
+        <v>-0.1098302348155495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2261192346781229</v>
+        <v>0.267270531863946</v>
       </c>
       <c r="C90">
-        <v>0.2791593959693346</v>
+        <v>0.2204684667588161</v>
       </c>
       <c r="D90">
-        <v>0.01068258701818936</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02755356844543285</v>
+      </c>
+      <c r="E90">
+        <v>0.05190479475526165</v>
+      </c>
+      <c r="F90">
+        <v>0.001101779946991135</v>
+      </c>
+      <c r="G90">
+        <v>0.03699872053790865</v>
+      </c>
+      <c r="H90">
+        <v>-0.04570957833814666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1704000691468499</v>
+        <v>0.1355465733743153</v>
       </c>
       <c r="C91">
-        <v>-0.1651919612216408</v>
+        <v>-0.1788159680380734</v>
       </c>
       <c r="D91">
-        <v>-0.12477299642542</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1185724231687939</v>
+      </c>
+      <c r="E91">
+        <v>0.09274713762974539</v>
+      </c>
+      <c r="F91">
+        <v>-0.06353210549445837</v>
+      </c>
+      <c r="G91">
+        <v>-0.02804985257117348</v>
+      </c>
+      <c r="H91">
+        <v>0.05066061554297794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1970515387171485</v>
+        <v>0.2569654884909307</v>
       </c>
       <c r="C92">
-        <v>0.2712199788246314</v>
+        <v>0.2421454056374897</v>
       </c>
       <c r="D92">
-        <v>0.01970311967757935</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03208316221699962</v>
+      </c>
+      <c r="E92">
+        <v>0.1098313525097229</v>
+      </c>
+      <c r="F92">
+        <v>-0.01347686692032573</v>
+      </c>
+      <c r="G92">
+        <v>-0.0151825180727784</v>
+      </c>
+      <c r="H92">
+        <v>-0.04405194983450009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2438495881540385</v>
+        <v>0.2815436785236144</v>
       </c>
       <c r="C93">
-        <v>0.2910259486084075</v>
+        <v>0.2298675379680404</v>
       </c>
       <c r="D93">
-        <v>0.01454211495176211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004272359403838548</v>
+      </c>
+      <c r="E93">
+        <v>-0.01272189790531235</v>
+      </c>
+      <c r="F93">
+        <v>-0.03296846309618067</v>
+      </c>
+      <c r="G93">
+        <v>-0.01289084232665466</v>
+      </c>
+      <c r="H93">
+        <v>-0.0001424670047327222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3306950886364062</v>
+        <v>0.2733472726701884</v>
       </c>
       <c r="C94">
-        <v>-0.2132077266648768</v>
+        <v>-0.2749105195195437</v>
       </c>
       <c r="D94">
-        <v>-0.3874526281126814</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4079382862483636</v>
+      </c>
+      <c r="E94">
+        <v>0.01335073551721346</v>
+      </c>
+      <c r="F94">
+        <v>0.03488521970728663</v>
+      </c>
+      <c r="G94">
+        <v>0.1878220499020145</v>
+      </c>
+      <c r="H94">
+        <v>-0.2982345317898428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06942678701826585</v>
+        <v>0.06258397249247008</v>
       </c>
       <c r="C95">
-        <v>-0.08174633646436939</v>
+        <v>-0.08975599659840426</v>
       </c>
       <c r="D95">
-        <v>0.110130990150019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09529079440249535</v>
+      </c>
+      <c r="E95">
+        <v>0.2273121700955971</v>
+      </c>
+      <c r="F95">
+        <v>0.7167762616219133</v>
+      </c>
+      <c r="G95">
+        <v>-0.4979800965552064</v>
+      </c>
+      <c r="H95">
+        <v>-0.2242093314765821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>8.24057033091816e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001445559845522471</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-4.73480443796506e-05</v>
+      </c>
+      <c r="E97">
+        <v>0.0002094275213278397</v>
+      </c>
+      <c r="F97">
+        <v>-0.0002949198166186677</v>
+      </c>
+      <c r="G97">
+        <v>0.0002292544508797378</v>
+      </c>
+      <c r="H97">
+        <v>0.0003105663058462546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1754099982392015</v>
+        <v>0.1627541168991345</v>
       </c>
       <c r="C98">
-        <v>-0.05573908774361735</v>
+        <v>-0.09417705950254192</v>
       </c>
       <c r="D98">
-        <v>0.1475998513056642</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1083416152438383</v>
+      </c>
+      <c r="E98">
+        <v>-0.3250065552734978</v>
+      </c>
+      <c r="F98">
+        <v>0.0751127051574673</v>
+      </c>
+      <c r="G98">
+        <v>-0.005081232346376079</v>
+      </c>
+      <c r="H98">
+        <v>0.1376131830870916</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004089468611838747</v>
+        <v>0.005186410905201688</v>
       </c>
       <c r="C101">
-        <v>-0.02137832914297245</v>
+        <v>-0.02611899688156146</v>
       </c>
       <c r="D101">
-        <v>0.08755973082827699</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09527747899019059</v>
+      </c>
+      <c r="E101">
+        <v>0.01373773867737642</v>
+      </c>
+      <c r="F101">
+        <v>-0.04396226636149356</v>
+      </c>
+      <c r="G101">
+        <v>-0.01416106202335323</v>
+      </c>
+      <c r="H101">
+        <v>-0.08556592899250759</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1251036407327243</v>
+        <v>0.09310918238533945</v>
       </c>
       <c r="C102">
-        <v>-0.1309275226553557</v>
+        <v>-0.1345493120015831</v>
       </c>
       <c r="D102">
-        <v>-0.08318194249379178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0899631084391548</v>
+      </c>
+      <c r="E102">
+        <v>0.01800719481205828</v>
+      </c>
+      <c r="F102">
+        <v>0.03211834491926396</v>
+      </c>
+      <c r="G102">
+        <v>0.02786330071063759</v>
+      </c>
+      <c r="H102">
+        <v>0.0005360270463712388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
